--- a/Data_clean/MCAS/Estados_US/Edos_USA_2015/MICHIGAN_2015.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2015/MICHIGAN_2015.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D1076"/>
+  <dimension ref="A1:D1070"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,22 +360,22 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Estado de Origen</t>
+          <t>mx_state</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Municipio Origen</t>
+          <t>mx_municipality</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Número de Matrículas</t>
+          <t>n_matriculas</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Porcentaje de Matrículas</t>
+          <t>pct_matriculas</t>
         </is>
       </c>
     </row>
@@ -439,7 +439,7 @@
     <row r="6">
       <c r="B6" t="inlineStr">
         <is>
-          <t>Pabellón de Arteaga</t>
+          <t>Pabellón De Arteaga</t>
         </is>
       </c>
       <c r="C6">
@@ -452,7 +452,7 @@
     <row r="7">
       <c r="B7" t="inlineStr">
         <is>
-          <t>Rincón de Romos</t>
+          <t>Rincón De Romos</t>
         </is>
       </c>
       <c r="C7">
@@ -662,7 +662,7 @@
     <row r="22">
       <c r="B22" t="inlineStr">
         <is>
-          <t>Amatenango de la Frontera</t>
+          <t>Amatenango De La Frontera</t>
         </is>
       </c>
       <c r="C22">
@@ -792,7 +792,7 @@
     <row r="32">
       <c r="B32" t="inlineStr">
         <is>
-          <t>Comitán de Domínguez</t>
+          <t>Comitán De Domínguez</t>
         </is>
       </c>
       <c r="C32">
@@ -961,7 +961,7 @@
     <row r="45">
       <c r="B45" t="inlineStr">
         <is>
-          <t>Mazapa de Madero</t>
+          <t>Mazapa De Madero</t>
         </is>
       </c>
       <c r="C45">
@@ -1052,7 +1052,7 @@
     <row r="52">
       <c r="B52" t="inlineStr">
         <is>
-          <t>Salto de Agua</t>
+          <t>Salto De Agua</t>
         </is>
       </c>
       <c r="C52">
@@ -1065,7 +1065,7 @@
     <row r="53">
       <c r="B53" t="inlineStr">
         <is>
-          <t>San Cristóbal de las Casas</t>
+          <t>San Cristóbal De Las Casas</t>
         </is>
       </c>
       <c r="C53">
@@ -1434,7 +1434,7 @@
     <row r="81">
       <c r="B81" t="inlineStr">
         <is>
-          <t>Guadalupe y Calvo</t>
+          <t>Guadalupe Y Calvo</t>
         </is>
       </c>
       <c r="C81">
@@ -1460,7 +1460,7 @@
     <row r="83">
       <c r="B83" t="inlineStr">
         <is>
-          <t>Hidalgo del Parral</t>
+          <t>Hidalgo Del Parral</t>
         </is>
       </c>
       <c r="C83">
@@ -1538,7 +1538,7 @@
     <row r="89">
       <c r="B89" t="inlineStr">
         <is>
-          <t>San Francisco del Oro</t>
+          <t>San Francisco Del Oro</t>
         </is>
       </c>
       <c r="C89">
@@ -1751,7 +1751,7 @@
     <row r="105">
       <c r="B105" t="inlineStr">
         <is>
-          <t>San Juan de Sabinas</t>
+          <t>San Juan De Sabinas</t>
         </is>
       </c>
       <c r="C105">
@@ -1860,7 +1860,7 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Ciudad de México</t>
+          <t>Ciudad De México</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
@@ -1917,7 +1917,7 @@
     <row r="117">
       <c r="B117" t="inlineStr">
         <is>
-          <t>Cuajimalpa de Morelos</t>
+          <t>Cuajimalpa De Morelos</t>
         </is>
       </c>
       <c r="C117">
@@ -2104,7 +2104,7 @@
     <row r="131">
       <c r="B131" t="inlineStr">
         <is>
-          <t>Coneto de Comonfort</t>
+          <t>Coneto De Comonfort</t>
         </is>
       </c>
       <c r="C131">
@@ -2299,7 +2299,7 @@
     <row r="146">
       <c r="B146" t="inlineStr">
         <is>
-          <t>Pánuco de Coronado</t>
+          <t>Pánuco De Coronado</t>
         </is>
       </c>
       <c r="C146">
@@ -2338,7 +2338,7 @@
     <row r="149">
       <c r="B149" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C149">
@@ -2403,12 +2403,12 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>Estado de México</t>
+          <t>Estado De México</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Acambay de Ruíz Castañeda</t>
+          <t>Acambay De Ruíz Castañeda</t>
         </is>
       </c>
       <c r="C154">
@@ -2434,7 +2434,7 @@
     <row r="156">
       <c r="B156" t="inlineStr">
         <is>
-          <t>Almoloya de Alquisiras</t>
+          <t>Almoloya De Alquisiras</t>
         </is>
       </c>
       <c r="C156">
@@ -2499,7 +2499,7 @@
     <row r="161">
       <c r="B161" t="inlineStr">
         <is>
-          <t>Atizapán de Zaragoza</t>
+          <t>Atizapán De Zaragoza</t>
         </is>
       </c>
       <c r="C161">
@@ -2551,7 +2551,7 @@
     <row r="165">
       <c r="B165" t="inlineStr">
         <is>
-          <t>Chapa de Mota</t>
+          <t>Chapa De Mota</t>
         </is>
       </c>
       <c r="C165">
@@ -2590,7 +2590,7 @@
     <row r="168">
       <c r="B168" t="inlineStr">
         <is>
-          <t>Coacalco de Berriozábal</t>
+          <t>Coacalco De Berriozábal</t>
         </is>
       </c>
       <c r="C168">
@@ -2642,7 +2642,7 @@
     <row r="172">
       <c r="B172" t="inlineStr">
         <is>
-          <t>Ecatepec de Morelos</t>
+          <t>Ecatepec De Morelos</t>
         </is>
       </c>
       <c r="C172">
@@ -2694,7 +2694,7 @@
     <row r="176">
       <c r="B176" t="inlineStr">
         <is>
-          <t>Ixtapan de la Sal</t>
+          <t>Ixtapan De La Sal</t>
         </is>
       </c>
       <c r="C176">
@@ -2811,7 +2811,7 @@
     <row r="185">
       <c r="B185" t="inlineStr">
         <is>
-          <t>Naucalpan de Juárez</t>
+          <t>Naucalpan De Juárez</t>
         </is>
       </c>
       <c r="C185">
@@ -2915,7 +2915,7 @@
     <row r="193">
       <c r="B193" t="inlineStr">
         <is>
-          <t>San Felipe del Progreso</t>
+          <t>San Felipe Del Progreso</t>
         </is>
       </c>
       <c r="C193">
@@ -3019,7 +3019,7 @@
     <row r="201">
       <c r="B201" t="inlineStr">
         <is>
-          <t>Tenango del Valle</t>
+          <t>Tenango Del Valle</t>
         </is>
       </c>
       <c r="C201">
@@ -3097,7 +3097,7 @@
     <row r="207">
       <c r="B207" t="inlineStr">
         <is>
-          <t>Tlalnepantla de Baz</t>
+          <t>Tlalnepantla De Baz</t>
         </is>
       </c>
       <c r="C207">
@@ -3149,7 +3149,7 @@
     <row r="211">
       <c r="B211" t="inlineStr">
         <is>
-          <t>Valle de Bravo</t>
+          <t>Valle De Bravo</t>
         </is>
       </c>
       <c r="C211">
@@ -3162,7 +3162,7 @@
     <row r="212">
       <c r="B212" t="inlineStr">
         <is>
-          <t>Villa de Allende</t>
+          <t>Villa De Allende</t>
         </is>
       </c>
       <c r="C212">
@@ -3284,7 +3284,7 @@
     <row r="221">
       <c r="B221" t="inlineStr">
         <is>
-          <t>San Miguel de Allende</t>
+          <t>San Miguel De Allende</t>
         </is>
       </c>
       <c r="C221">
@@ -3297,7 +3297,7 @@
     <row r="222">
       <c r="B222" t="inlineStr">
         <is>
-          <t>Apaseo el Alto</t>
+          <t>Apaseo El Alto</t>
         </is>
       </c>
       <c r="C222">
@@ -3310,7 +3310,7 @@
     <row r="223">
       <c r="B223" t="inlineStr">
         <is>
-          <t>Apaseo el Grande</t>
+          <t>Apaseo El Grande</t>
         </is>
       </c>
       <c r="C223">
@@ -3401,7 +3401,7 @@
     <row r="230">
       <c r="B230" t="inlineStr">
         <is>
-          <t>Dolores Hidalgo Cuna de la Independencia Nacional</t>
+          <t>Dolores Hidalgo Cuna De La Independencia Nacional</t>
         </is>
       </c>
       <c r="C230">
@@ -3453,7 +3453,7 @@
     <row r="234">
       <c r="B234" t="inlineStr">
         <is>
-          <t>Jaral del Progreso</t>
+          <t>Jaral Del Progreso</t>
         </is>
       </c>
       <c r="C234">
@@ -3544,7 +3544,7 @@
     <row r="241">
       <c r="B241" t="inlineStr">
         <is>
-          <t>Purísima del Rincón</t>
+          <t>Purísima Del Rincón</t>
         </is>
       </c>
       <c r="C241">
@@ -3596,7 +3596,7 @@
     <row r="245">
       <c r="B245" t="inlineStr">
         <is>
-          <t>San Diego de la Unión</t>
+          <t>San Diego De La Unión</t>
         </is>
       </c>
       <c r="C245">
@@ -3622,7 +3622,7 @@
     <row r="247">
       <c r="B247" t="inlineStr">
         <is>
-          <t>San Francisco del Rincón</t>
+          <t>San Francisco Del Rincón</t>
         </is>
       </c>
       <c r="C247">
@@ -3648,7 +3648,7 @@
     <row r="249">
       <c r="B249" t="inlineStr">
         <is>
-          <t>San Luis de la Paz</t>
+          <t>San Luis De La Paz</t>
         </is>
       </c>
       <c r="C249">
@@ -3674,7 +3674,7 @@
     <row r="251">
       <c r="B251" t="inlineStr">
         <is>
-          <t>Silao de la Victoria</t>
+          <t>Silao De La Victoria</t>
         </is>
       </c>
       <c r="C251">
@@ -3739,7 +3739,7 @@
     <row r="256">
       <c r="B256" t="inlineStr">
         <is>
-          <t>Valle de Santiago</t>
+          <t>Valle De Santiago</t>
         </is>
       </c>
       <c r="C256">
@@ -3822,7 +3822,7 @@
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>Acapulco de Juárez</t>
+          <t>Acapulco De Juárez</t>
         </is>
       </c>
       <c r="C262">
@@ -3848,7 +3848,7 @@
     <row r="264">
       <c r="B264" t="inlineStr">
         <is>
-          <t>Ajuchitlán del Progreso</t>
+          <t>Ajuchitlán Del Progreso</t>
         </is>
       </c>
       <c r="C264">
@@ -3861,7 +3861,7 @@
     <row r="265">
       <c r="B265" t="inlineStr">
         <is>
-          <t>Alcozauca de Guerrero</t>
+          <t>Alcozauca De Guerrero</t>
         </is>
       </c>
       <c r="C265">
@@ -3913,7 +3913,7 @@
     <row r="269">
       <c r="B269" t="inlineStr">
         <is>
-          <t>Atenango del Río</t>
+          <t>Atenango Del Río</t>
         </is>
       </c>
       <c r="C269">
@@ -3926,7 +3926,7 @@
     <row r="270">
       <c r="B270" t="inlineStr">
         <is>
-          <t>Atlamajalcingo del Monte</t>
+          <t>Atlamajalcingo Del Monte</t>
         </is>
       </c>
       <c r="C270">
@@ -3952,7 +3952,7 @@
     <row r="272">
       <c r="B272" t="inlineStr">
         <is>
-          <t>Atoyac de Álvarez</t>
+          <t>Atoyac De Álvarez</t>
         </is>
       </c>
       <c r="C272">
@@ -3965,7 +3965,7 @@
     <row r="273">
       <c r="B273" t="inlineStr">
         <is>
-          <t>Ayutla de los Libres</t>
+          <t>Ayutla De Los Libres</t>
         </is>
       </c>
       <c r="C273">
@@ -4004,7 +4004,7 @@
     <row r="276">
       <c r="B276" t="inlineStr">
         <is>
-          <t>Chilapa de Álvarez</t>
+          <t>Chilapa De Álvarez</t>
         </is>
       </c>
       <c r="C276">
@@ -4017,7 +4017,7 @@
     <row r="277">
       <c r="B277" t="inlineStr">
         <is>
-          <t>Chilpancingo de los Bravo</t>
+          <t>Chilpancingo De Los Bravo</t>
         </is>
       </c>
       <c r="C277">
@@ -4069,7 +4069,7 @@
     <row r="281">
       <c r="B281" t="inlineStr">
         <is>
-          <t>Coyuca de Benítez</t>
+          <t>Coyuca De Benítez</t>
         </is>
       </c>
       <c r="C281">
@@ -4082,7 +4082,7 @@
     <row r="282">
       <c r="B282" t="inlineStr">
         <is>
-          <t>Coyuca de Catalán</t>
+          <t>Coyuca De Catalán</t>
         </is>
       </c>
       <c r="C282">
@@ -4108,7 +4108,7 @@
     <row r="284">
       <c r="B284" t="inlineStr">
         <is>
-          <t>Cutzamala de Pinzón</t>
+          <t>Cutzamala De Pinzón</t>
         </is>
       </c>
       <c r="C284">
@@ -4186,7 +4186,7 @@
     <row r="290">
       <c r="B290" t="inlineStr">
         <is>
-          <t>Huitzuco de los Figueroa</t>
+          <t>Huitzuco De Los Figueroa</t>
         </is>
       </c>
       <c r="C290">
@@ -4199,7 +4199,7 @@
     <row r="291">
       <c r="B291" t="inlineStr">
         <is>
-          <t>Iguala de la Independencia</t>
+          <t>Iguala De La Independencia</t>
         </is>
       </c>
       <c r="C291">
@@ -4212,7 +4212,7 @@
     <row r="292">
       <c r="B292" t="inlineStr">
         <is>
-          <t>Ixcateopan de Cuauhtémoc</t>
+          <t>Ixcateopan De Cuauhtémoc</t>
         </is>
       </c>
       <c r="C292">
@@ -4251,7 +4251,7 @@
     <row r="295">
       <c r="B295" t="inlineStr">
         <is>
-          <t>La Unión de Isidoro Montes de Oca</t>
+          <t>La Unión De Isidoro Montes De Oca</t>
         </is>
       </c>
       <c r="C295">
@@ -4290,7 +4290,7 @@
     <row r="298">
       <c r="B298" t="inlineStr">
         <is>
-          <t>Mártir de Cuilapan</t>
+          <t>Mártir De Cuilapan</t>
         </is>
       </c>
       <c r="C298">
@@ -4459,7 +4459,7 @@
     <row r="311">
       <c r="B311" t="inlineStr">
         <is>
-          <t>Taxco de Alarcón</t>
+          <t>Taxco De Alarcón</t>
         </is>
       </c>
       <c r="C311">
@@ -4485,7 +4485,7 @@
     <row r="313">
       <c r="B313" t="inlineStr">
         <is>
-          <t>Técpan de Galeana</t>
+          <t>Técpan De Galeana</t>
         </is>
       </c>
       <c r="C313">
@@ -4511,7 +4511,7 @@
     <row r="315">
       <c r="B315" t="inlineStr">
         <is>
-          <t>Tepecoacuilco de Trujano</t>
+          <t>Tepecoacuilco De Trujano</t>
         </is>
       </c>
       <c r="C315">
@@ -4524,7 +4524,7 @@
     <row r="316">
       <c r="B316" t="inlineStr">
         <is>
-          <t>Tixtla de Guerrero</t>
+          <t>Tixtla De Guerrero</t>
         </is>
       </c>
       <c r="C316">
@@ -4563,7 +4563,7 @@
     <row r="319">
       <c r="B319" t="inlineStr">
         <is>
-          <t>Tlalixtaquilla de Maldonado</t>
+          <t>Tlalixtaquilla De Maldonado</t>
         </is>
       </c>
       <c r="C319">
@@ -4576,7 +4576,7 @@
     <row r="320">
       <c r="B320" t="inlineStr">
         <is>
-          <t>Tlapa de Comonfort</t>
+          <t>Tlapa De Comonfort</t>
         </is>
       </c>
       <c r="C320">
@@ -4711,7 +4711,7 @@
     <row r="330">
       <c r="B330" t="inlineStr">
         <is>
-          <t>Agua Blanca de Iturbide</t>
+          <t>Agua Blanca De Iturbide</t>
         </is>
       </c>
       <c r="C330">
@@ -4750,7 +4750,7 @@
     <row r="333">
       <c r="B333" t="inlineStr">
         <is>
-          <t>Atotonilco el Grande</t>
+          <t>Atotonilco El Grande</t>
         </is>
       </c>
       <c r="C333">
@@ -4815,7 +4815,7 @@
     <row r="338">
       <c r="B338" t="inlineStr">
         <is>
-          <t>Cuautepec de Hinojosa</t>
+          <t>Cuautepec De Hinojosa</t>
         </is>
       </c>
       <c r="C338">
@@ -4867,7 +4867,7 @@
     <row r="342">
       <c r="B342" t="inlineStr">
         <is>
-          <t>Huejutla de Reyes</t>
+          <t>Huejutla De Reyes</t>
         </is>
       </c>
       <c r="C342">
@@ -4906,7 +4906,7 @@
     <row r="345">
       <c r="B345" t="inlineStr">
         <is>
-          <t>Jacala de Ledezma</t>
+          <t>Jacala De Ledezma</t>
         </is>
       </c>
       <c r="C345">
@@ -4971,7 +4971,7 @@
     <row r="350">
       <c r="B350" t="inlineStr">
         <is>
-          <t>Mineral del Chico</t>
+          <t>Mineral Del Chico</t>
         </is>
       </c>
       <c r="C350">
@@ -4984,7 +4984,7 @@
     <row r="351">
       <c r="B351" t="inlineStr">
         <is>
-          <t>Mineral del Monte</t>
+          <t>Mineral Del Monte</t>
         </is>
       </c>
       <c r="C351">
@@ -4997,7 +4997,7 @@
     <row r="352">
       <c r="B352" t="inlineStr">
         <is>
-          <t>Mixquiahuala de Juárez</t>
+          <t>Mixquiahuala De Juárez</t>
         </is>
       </c>
       <c r="C352">
@@ -5023,7 +5023,7 @@
     <row r="354">
       <c r="B354" t="inlineStr">
         <is>
-          <t>Pachuca de Soto</t>
+          <t>Pachuca De Soto</t>
         </is>
       </c>
       <c r="C354">
@@ -5101,7 +5101,7 @@
     <row r="360">
       <c r="B360" t="inlineStr">
         <is>
-          <t>Santiago de Anaya</t>
+          <t>Santiago De Anaya</t>
         </is>
       </c>
       <c r="C360">
@@ -5140,7 +5140,7 @@
     <row r="363">
       <c r="B363" t="inlineStr">
         <is>
-          <t>Tepehuacán de Guerrero</t>
+          <t>Tepehuacán De Guerrero</t>
         </is>
       </c>
       <c r="C363">
@@ -5153,7 +5153,7 @@
     <row r="364">
       <c r="B364" t="inlineStr">
         <is>
-          <t>Tepeji del Río de Ocampo</t>
+          <t>Tepeji Del Río De Ocampo</t>
         </is>
       </c>
       <c r="C364">
@@ -5218,7 +5218,7 @@
     <row r="369">
       <c r="B369" t="inlineStr">
         <is>
-          <t>Tula de Allende</t>
+          <t>Tula De Allende</t>
         </is>
       </c>
       <c r="C369">
@@ -5231,7 +5231,7 @@
     <row r="370">
       <c r="B370" t="inlineStr">
         <is>
-          <t>Tulancingo de Bravo</t>
+          <t>Tulancingo De Bravo</t>
         </is>
       </c>
       <c r="C370">
@@ -5257,7 +5257,7 @@
     <row r="372">
       <c r="B372" t="inlineStr">
         <is>
-          <t>Zacualtipán de Ángeles</t>
+          <t>Zacualtipán De Ángeles</t>
         </is>
       </c>
       <c r="C372">
@@ -5314,7 +5314,7 @@
     <row r="376">
       <c r="B376" t="inlineStr">
         <is>
-          <t>Ahualulco de Mercado</t>
+          <t>Ahualulco De Mercado</t>
         </is>
       </c>
       <c r="C376">
@@ -5353,7 +5353,7 @@
     <row r="379">
       <c r="B379" t="inlineStr">
         <is>
-          <t>Atemajac de Brizuela</t>
+          <t>Atemajac De Brizuela</t>
         </is>
       </c>
       <c r="C379">
@@ -5392,7 +5392,7 @@
     <row r="382">
       <c r="B382" t="inlineStr">
         <is>
-          <t>Atotonilco el Alto</t>
+          <t>Atotonilco El Alto</t>
         </is>
       </c>
       <c r="C382">
@@ -5509,7 +5509,7 @@
     <row r="391">
       <c r="B391" t="inlineStr">
         <is>
-          <t>Encarnación de Díaz</t>
+          <t>Encarnación De Díaz</t>
         </is>
       </c>
       <c r="C391">
@@ -5574,7 +5574,7 @@
     <row r="396">
       <c r="B396" t="inlineStr">
         <is>
-          <t>Huejuquilla el Alto</t>
+          <t>Huejuquilla El Alto</t>
         </is>
       </c>
       <c r="C396">
@@ -5587,7 +5587,7 @@
     <row r="397">
       <c r="B397" t="inlineStr">
         <is>
-          <t>Ixtlahuacán del Río</t>
+          <t>Ixtlahuacán Del Río</t>
         </is>
       </c>
       <c r="C397">
@@ -5626,7 +5626,7 @@
     <row r="400">
       <c r="B400" t="inlineStr">
         <is>
-          <t>Jilotlán de los Dolores</t>
+          <t>Jilotlán De Los Dolores</t>
         </is>
       </c>
       <c r="C400">
@@ -5665,7 +5665,7 @@
     <row r="403">
       <c r="B403" t="inlineStr">
         <is>
-          <t>Lagos de Moreno</t>
+          <t>Lagos De Moreno</t>
         </is>
       </c>
       <c r="C403">
@@ -5743,7 +5743,7 @@
     <row r="409">
       <c r="B409" t="inlineStr">
         <is>
-          <t>Ojuelos de Jalisco</t>
+          <t>Ojuelos De Jalisco</t>
         </is>
       </c>
       <c r="C409">
@@ -5795,7 +5795,7 @@
     <row r="413">
       <c r="B413" t="inlineStr">
         <is>
-          <t>San Cristóbal de la Barranca</t>
+          <t>San Cristóbal De La Barranca</t>
         </is>
       </c>
       <c r="C413">
@@ -5821,7 +5821,7 @@
     <row r="415">
       <c r="B415" t="inlineStr">
         <is>
-          <t>San Juan de los Lagos</t>
+          <t>San Juan De Los Lagos</t>
         </is>
       </c>
       <c r="C415">
@@ -5834,7 +5834,7 @@
     <row r="416">
       <c r="B416" t="inlineStr">
         <is>
-          <t>San Juanito de Escobedo</t>
+          <t>San Juanito De Escobedo</t>
         </is>
       </c>
       <c r="C416">
@@ -5886,7 +5886,7 @@
     <row r="420">
       <c r="B420" t="inlineStr">
         <is>
-          <t>San Miguel el Alto</t>
+          <t>San Miguel El Alto</t>
         </is>
       </c>
       <c r="C420">
@@ -5899,7 +5899,7 @@
     <row r="421">
       <c r="B421" t="inlineStr">
         <is>
-          <t>San Sebastián del Oeste</t>
+          <t>San Sebastián Del Oeste</t>
         </is>
       </c>
       <c r="C421">
@@ -5938,7 +5938,7 @@
     <row r="424">
       <c r="B424" t="inlineStr">
         <is>
-          <t>Talpa de Allende</t>
+          <t>Talpa De Allende</t>
         </is>
       </c>
       <c r="C424">
@@ -5951,7 +5951,7 @@
     <row r="425">
       <c r="B425" t="inlineStr">
         <is>
-          <t>Tamazula de Gordiano</t>
+          <t>Tamazula De Gordiano</t>
         </is>
       </c>
       <c r="C425">
@@ -5977,7 +5977,7 @@
     <row r="427">
       <c r="B427" t="inlineStr">
         <is>
-          <t>Tepatitlán de Morelos</t>
+          <t>Tepatitlán De Morelos</t>
         </is>
       </c>
       <c r="C427">
@@ -5990,7 +5990,7 @@
     <row r="428">
       <c r="B428" t="inlineStr">
         <is>
-          <t>Tizapán el Alto</t>
+          <t>Tizapán El Alto</t>
         </is>
       </c>
       <c r="C428">
@@ -6003,7 +6003,7 @@
     <row r="429">
       <c r="B429" t="inlineStr">
         <is>
-          <t>Tlajomulco de Zúñiga</t>
+          <t>Tlajomulco De Zúñiga</t>
         </is>
       </c>
       <c r="C429">
@@ -6081,7 +6081,7 @@
     <row r="435">
       <c r="B435" t="inlineStr">
         <is>
-          <t>Unión de San Antonio</t>
+          <t>Unión De San Antonio</t>
         </is>
       </c>
       <c r="C435">
@@ -6094,7 +6094,7 @@
     <row r="436">
       <c r="B436" t="inlineStr">
         <is>
-          <t>Valle de Juárez</t>
+          <t>Valle De Juárez</t>
         </is>
       </c>
       <c r="C436">
@@ -6133,7 +6133,7 @@
     <row r="439">
       <c r="B439" t="inlineStr">
         <is>
-          <t>Yahualica de González Gallo</t>
+          <t>Yahualica De González Gallo</t>
         </is>
       </c>
       <c r="C439">
@@ -6146,7 +6146,7 @@
     <row r="440">
       <c r="B440" t="inlineStr">
         <is>
-          <t>Zacoalco de Torres</t>
+          <t>Zacoalco De Torres</t>
         </is>
       </c>
       <c r="C440">
@@ -6185,7 +6185,7 @@
     <row r="443">
       <c r="B443" t="inlineStr">
         <is>
-          <t>Zapotlán del Rey</t>
+          <t>Zapotlán Del Rey</t>
         </is>
       </c>
       <c r="C443">
@@ -6198,7 +6198,7 @@
     <row r="444">
       <c r="B444" t="inlineStr">
         <is>
-          <t>Zapotlán el Grande</t>
+          <t>Zapotlán El Grande</t>
         </is>
       </c>
       <c r="C444">
@@ -7178,7 +7178,7 @@
     <row r="519">
       <c r="B519" t="inlineStr">
         <is>
-          <t>Tiquicheo de Nicolás Romero</t>
+          <t>Tiquicheo De Nicolás Romero</t>
         </is>
       </c>
       <c r="C519">
@@ -7586,7 +7586,7 @@
     <row r="550">
       <c r="B550" t="inlineStr">
         <is>
-          <t>Puente de Ixtla</t>
+          <t>Puente De Ixtla</t>
         </is>
       </c>
       <c r="C550">
@@ -7690,7 +7690,7 @@
     <row r="558">
       <c r="B558" t="inlineStr">
         <is>
-          <t>Zacualpan de Amilpas</t>
+          <t>Zacualpan De Amilpas</t>
         </is>
       </c>
       <c r="C558">
@@ -7721,7 +7721,7 @@
       </c>
       <c r="B560" t="inlineStr">
         <is>
-          <t>Bahía de Banderas</t>
+          <t>Bahía De Banderas</t>
         </is>
       </c>
       <c r="C560">
@@ -7747,7 +7747,7 @@
     <row r="562">
       <c r="B562" t="inlineStr">
         <is>
-          <t>Ixtlán del Río</t>
+          <t>Ixtlán Del Río</t>
         </is>
       </c>
       <c r="C562">
@@ -8077,7 +8077,7 @@
     <row r="587">
       <c r="B587" t="inlineStr">
         <is>
-          <t>San Nicolás de los Garza</t>
+          <t>San Nicolás De Los Garza</t>
         </is>
       </c>
       <c r="C587">
@@ -8147,7 +8147,7 @@
     <row r="592">
       <c r="B592" t="inlineStr">
         <is>
-          <t>Acatlán de Pérez Figueroa</t>
+          <t>Acatlán De Pérez Figueroa</t>
         </is>
       </c>
       <c r="C592">
@@ -8186,7 +8186,7 @@
     <row r="595">
       <c r="B595" t="inlineStr">
         <is>
-          <t>Chalcatongo de Hidalgo</t>
+          <t>Chalcatongo De Hidalgo</t>
         </is>
       </c>
       <c r="C595">
@@ -8199,7 +8199,7 @@
     <row r="596">
       <c r="B596" t="inlineStr">
         <is>
-          <t>Ciénega de Zimatlán</t>
+          <t>Ciénega De Zimatlán</t>
         </is>
       </c>
       <c r="C596">
@@ -8225,7 +8225,7 @@
     <row r="598">
       <c r="B598" t="inlineStr">
         <is>
-          <t>Fresnillo de Trujano</t>
+          <t>Fresnillo De Trujano</t>
         </is>
       </c>
       <c r="C598">
@@ -8238,7 +8238,7 @@
     <row r="599">
       <c r="B599" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Ejutla de Crespo</t>
+          <t>Heroica Ciudad De Ejutla De Crespo</t>
         </is>
       </c>
       <c r="C599">
@@ -8251,7 +8251,7 @@
     <row r="600">
       <c r="B600" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Huajuapan de León</t>
+          <t>Heroica Ciudad De Huajuapan De León</t>
         </is>
       </c>
       <c r="C600">
@@ -8277,7 +8277,7 @@
     <row r="602">
       <c r="B602" t="inlineStr">
         <is>
-          <t>Ixtlán de Juárez</t>
+          <t>Ixtlán De Juárez</t>
         </is>
       </c>
       <c r="C602">
@@ -8290,7 +8290,7 @@
     <row r="603">
       <c r="B603" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Juchitán de Zaragoza</t>
+          <t>Heroica Ciudad De Juchitán De Zaragoza</t>
         </is>
       </c>
       <c r="C603">
@@ -8342,7 +8342,7 @@
     <row r="607">
       <c r="B607" t="inlineStr">
         <is>
-          <t>Mariscala de Juárez</t>
+          <t>Mariscala De Juárez</t>
         </is>
       </c>
       <c r="C607">
@@ -8368,7 +8368,7 @@
     <row r="609">
       <c r="B609" t="inlineStr">
         <is>
-          <t>Miahuatlán de Porfirio Díaz</t>
+          <t>Miahuatlán De Porfirio Díaz</t>
         </is>
       </c>
       <c r="C609">
@@ -8394,7 +8394,7 @@
     <row r="611">
       <c r="B611" t="inlineStr">
         <is>
-          <t>Nejapa de Madero</t>
+          <t>Nejapa De Madero</t>
         </is>
       </c>
       <c r="C611">
@@ -8407,7 +8407,7 @@
     <row r="612">
       <c r="B612" t="inlineStr">
         <is>
-          <t>Oaxaca de Juárez</t>
+          <t>Oaxaca De Juárez</t>
         </is>
       </c>
       <c r="C612">
@@ -8420,7 +8420,7 @@
     <row r="613">
       <c r="B613" t="inlineStr">
         <is>
-          <t>Ocotlán de Morelos</t>
+          <t>Ocotlán De Morelos</t>
         </is>
       </c>
       <c r="C613">
@@ -8446,7 +8446,7 @@
     <row r="615">
       <c r="B615" t="inlineStr">
         <is>
-          <t>Putla Villa de Guerrero</t>
+          <t>Putla Villa De Guerrero</t>
         </is>
       </c>
       <c r="C615">
@@ -8589,7 +8589,7 @@
     <row r="626">
       <c r="B626" t="inlineStr">
         <is>
-          <t>San Felipe Jalapa de Díaz</t>
+          <t>San Felipe Jalapa De Díaz</t>
         </is>
       </c>
       <c r="C626">
@@ -8732,7 +8732,7 @@
     <row r="637">
       <c r="B637" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C637">
@@ -8914,7 +8914,7 @@
     <row r="651">
       <c r="B651" t="inlineStr">
         <is>
-          <t>San Miguel del Puerto</t>
+          <t>San Miguel Del Puerto</t>
         </is>
       </c>
       <c r="C651">
@@ -9213,7 +9213,7 @@
     <row r="674">
       <c r="B674" t="inlineStr">
         <is>
-          <t>Santa María Jalapa del Marqués</t>
+          <t>Santa María Jalapa Del Marqués</t>
         </is>
       </c>
       <c r="C674">
@@ -9343,7 +9343,7 @@
     <row r="684">
       <c r="B684" t="inlineStr">
         <is>
-          <t>Santiago del Río</t>
+          <t>Santiago Del Río</t>
         </is>
       </c>
       <c r="C684">
@@ -9538,7 +9538,7 @@
     <row r="699">
       <c r="B699" t="inlineStr">
         <is>
-          <t>Tamazulápam del Espíritu Santo</t>
+          <t>Tamazulápam Del Espíritu Santo</t>
         </is>
       </c>
       <c r="C699">
@@ -9564,7 +9564,7 @@
     <row r="701">
       <c r="B701" t="inlineStr">
         <is>
-          <t>Teotitlán de Flores Magón</t>
+          <t>Teotitlán De Flores Magón</t>
         </is>
       </c>
       <c r="C701">
@@ -9603,7 +9603,7 @@
     <row r="704">
       <c r="B704" t="inlineStr">
         <is>
-          <t>Tlacolula de Matamoros</t>
+          <t>Tlacolula De Matamoros</t>
         </is>
       </c>
       <c r="C704">
@@ -9616,7 +9616,7 @@
     <row r="705">
       <c r="B705" t="inlineStr">
         <is>
-          <t>Totontepec Villa de Morelos</t>
+          <t>Totontepec Villa De Morelos</t>
         </is>
       </c>
       <c r="C705">
@@ -9642,7 +9642,7 @@
     <row r="707">
       <c r="B707" t="inlineStr">
         <is>
-          <t>Villa de Tututepec de Melchor Ocampo</t>
+          <t>Villa De Tututepec De Melchor Ocampo</t>
         </is>
       </c>
       <c r="C707">
@@ -9655,7 +9655,7 @@
     <row r="708">
       <c r="B708" t="inlineStr">
         <is>
-          <t>Villa de Zaachila</t>
+          <t>Villa De Zaachila</t>
         </is>
       </c>
       <c r="C708">
@@ -9668,7 +9668,7 @@
     <row r="709">
       <c r="B709" t="inlineStr">
         <is>
-          <t>Villa Sola de Vega</t>
+          <t>Villa Sola De Vega</t>
         </is>
       </c>
       <c r="C709">
@@ -9681,7 +9681,7 @@
     <row r="710">
       <c r="B710" t="inlineStr">
         <is>
-          <t>Zimatlán de Álvarez</t>
+          <t>Zimatlán De Álvarez</t>
         </is>
       </c>
       <c r="C710">
@@ -9855,7 +9855,7 @@
     <row r="723">
       <c r="B723" t="inlineStr">
         <is>
-          <t>Ayotoxco de Guerrero</t>
+          <t>Ayotoxco De Guerrero</t>
         </is>
       </c>
       <c r="C723">
@@ -9920,7 +9920,7 @@
     <row r="728">
       <c r="B728" t="inlineStr">
         <is>
-          <t>Chila de la Sal</t>
+          <t>Chila De La Sal</t>
         </is>
       </c>
       <c r="C728">
@@ -9972,7 +9972,7 @@
     <row r="732">
       <c r="B732" t="inlineStr">
         <is>
-          <t>Cuayuca de Andrade</t>
+          <t>Cuayuca De Andrade</t>
         </is>
       </c>
       <c r="C732">
@@ -9985,7 +9985,7 @@
     <row r="733">
       <c r="B733" t="inlineStr">
         <is>
-          <t>Cuetzalan del Progreso</t>
+          <t>Cuetzalan Del Progreso</t>
         </is>
       </c>
       <c r="C733">
@@ -10128,7 +10128,7 @@
     <row r="744">
       <c r="B744" t="inlineStr">
         <is>
-          <t>Ixcamilpa de Guerrero</t>
+          <t>Ixcamilpa De Guerrero</t>
         </is>
       </c>
       <c r="C744">
@@ -10154,7 +10154,7 @@
     <row r="746">
       <c r="B746" t="inlineStr">
         <is>
-          <t>Izúcar de Matamoros</t>
+          <t>Izúcar De Matamoros</t>
         </is>
       </c>
       <c r="C746">
@@ -10219,7 +10219,7 @@
     <row r="751">
       <c r="B751" t="inlineStr">
         <is>
-          <t>Los Reyes de Juárez</t>
+          <t>Los Reyes De Juárez</t>
         </is>
       </c>
       <c r="C751">
@@ -10414,7 +10414,7 @@
     <row r="766">
       <c r="B766" t="inlineStr">
         <is>
-          <t>San Salvador el Verde</t>
+          <t>San Salvador El Verde</t>
         </is>
       </c>
       <c r="C766">
@@ -10518,7 +10518,7 @@
     <row r="774">
       <c r="B774" t="inlineStr">
         <is>
-          <t>Tepatlaxco de Hidalgo</t>
+          <t>Tepatlaxco De Hidalgo</t>
         </is>
       </c>
       <c r="C774">
@@ -10557,7 +10557,7 @@
     <row r="777">
       <c r="B777" t="inlineStr">
         <is>
-          <t>Tepexi de Rodríguez</t>
+          <t>Tepexi De Rodríguez</t>
         </is>
       </c>
       <c r="C777">
@@ -10583,7 +10583,7 @@
     <row r="779">
       <c r="B779" t="inlineStr">
         <is>
-          <t>Tetela de Ocampo</t>
+          <t>Tetela De Ocampo</t>
         </is>
       </c>
       <c r="C779">
@@ -10752,7 +10752,7 @@
     <row r="792">
       <c r="B792" t="inlineStr">
         <is>
-          <t>Xayacatlán de Bravo</t>
+          <t>Xayacatlán De Bravo</t>
         </is>
       </c>
       <c r="C792">
@@ -10874,7 +10874,7 @@
       </c>
       <c r="B801" t="inlineStr">
         <is>
-          <t>Amealco de Bonfil</t>
+          <t>Amealco De Bonfil</t>
         </is>
       </c>
       <c r="C801">
@@ -10900,7 +10900,7 @@
     <row r="803">
       <c r="B803" t="inlineStr">
         <is>
-          <t>Cadereyta de Montes</t>
+          <t>Cadereyta De Montes</t>
         </is>
       </c>
       <c r="C803">
@@ -10952,7 +10952,7 @@
     <row r="807">
       <c r="B807" t="inlineStr">
         <is>
-          <t>Jalpan de Serra</t>
+          <t>Jalpan De Serra</t>
         </is>
       </c>
       <c r="C807">
@@ -10965,7 +10965,7 @@
     <row r="808">
       <c r="B808" t="inlineStr">
         <is>
-          <t>Landa de Matamoros</t>
+          <t>Landa De Matamoros</t>
         </is>
       </c>
       <c r="C808">
@@ -10991,7 +10991,7 @@
     <row r="810">
       <c r="B810" t="inlineStr">
         <is>
-          <t>Pinal de Amoles</t>
+          <t>Pinal De Amoles</t>
         </is>
       </c>
       <c r="C810">
@@ -11017,7 +11017,7 @@
     <row r="812">
       <c r="B812" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C812">
@@ -11209,7 +11209,7 @@
     <row r="826">
       <c r="B826" t="inlineStr">
         <is>
-          <t>Ciudad del Maíz</t>
+          <t>Ciudad Del Maíz</t>
         </is>
       </c>
       <c r="C826">
@@ -11313,7 +11313,7 @@
     <row r="834">
       <c r="B834" t="inlineStr">
         <is>
-          <t>Mexquitic de Carmona</t>
+          <t>Mexquitic De Carmona</t>
         </is>
       </c>
       <c r="C834">
@@ -11378,7 +11378,7 @@
     <row r="839">
       <c r="B839" t="inlineStr">
         <is>
-          <t>San Ciro de Acosta</t>
+          <t>San Ciro De Acosta</t>
         </is>
       </c>
       <c r="C839">
@@ -11430,7 +11430,7 @@
     <row r="843">
       <c r="B843" t="inlineStr">
         <is>
-          <t>Santa María del Río</t>
+          <t>Santa María Del Río</t>
         </is>
       </c>
       <c r="C843">
@@ -11443,7 +11443,7 @@
     <row r="844">
       <c r="B844" t="inlineStr">
         <is>
-          <t>Soledad de Graciano Sánchez</t>
+          <t>Soledad De Graciano Sánchez</t>
         </is>
       </c>
       <c r="C844">
@@ -11521,7 +11521,7 @@
     <row r="850">
       <c r="B850" t="inlineStr">
         <is>
-          <t>Tanquián de Escobedo</t>
+          <t>Tanquián De Escobedo</t>
         </is>
       </c>
       <c r="C850">
@@ -11547,7 +11547,7 @@
     <row r="852">
       <c r="B852" t="inlineStr">
         <is>
-          <t>Villa de Arriaga</t>
+          <t>Villa De Arriaga</t>
         </is>
       </c>
       <c r="C852">
@@ -11560,7 +11560,7 @@
     <row r="853">
       <c r="B853" t="inlineStr">
         <is>
-          <t>Villa de Guadalupe</t>
+          <t>Villa De Guadalupe</t>
         </is>
       </c>
       <c r="C853">
@@ -11573,7 +11573,7 @@
     <row r="854">
       <c r="B854" t="inlineStr">
         <is>
-          <t>Villa de Ramos</t>
+          <t>Villa De Ramos</t>
         </is>
       </c>
       <c r="C854">
@@ -11586,7 +11586,7 @@
     <row r="855">
       <c r="B855" t="inlineStr">
         <is>
-          <t>Villa de Reyes</t>
+          <t>Villa De Reyes</t>
         </is>
       </c>
       <c r="C855">
@@ -12043,7 +12043,7 @@
     <row r="889">
       <c r="B889" t="inlineStr">
         <is>
-          <t>Jalpa de Méndez</t>
+          <t>Jalpa De Méndez</t>
         </is>
       </c>
       <c r="C889">
@@ -12521,7 +12521,7 @@
     <row r="925">
       <c r="B925" t="inlineStr">
         <is>
-          <t>Muñoz de Domingo Arenas</t>
+          <t>Muñoz De Domingo Arenas</t>
         </is>
       </c>
       <c r="C925">
@@ -12534,7 +12534,7 @@
     <row r="926">
       <c r="B926" t="inlineStr">
         <is>
-          <t>Nanacamilpa de Mariano Arista</t>
+          <t>Nanacamilpa De Mariano Arista</t>
         </is>
       </c>
       <c r="C926">
@@ -12721,7 +12721,7 @@
     <row r="940">
       <c r="B940" t="inlineStr">
         <is>
-          <t>Alto Lucero de Gutiérrez Barrios</t>
+          <t>Alto Lucero De Gutiérrez Barrios</t>
         </is>
       </c>
       <c r="C940">
@@ -12747,7 +12747,7 @@
     <row r="942">
       <c r="B942" t="inlineStr">
         <is>
-          <t>Amatlán de los Reyes</t>
+          <t>Amatlán De Los Reyes</t>
         </is>
       </c>
       <c r="C942">
@@ -12812,7 +12812,7 @@
     <row r="947">
       <c r="B947" t="inlineStr">
         <is>
-          <t>Camarón de Tejeda</t>
+          <t>Camarón De Tejeda</t>
         </is>
       </c>
       <c r="C947">
@@ -12838,7 +12838,7 @@
     <row r="949">
       <c r="B949" t="inlineStr">
         <is>
-          <t>Castillo de Teayo</t>
+          <t>Castillo De Teayo</t>
         </is>
       </c>
       <c r="C949">
@@ -12942,7 +12942,7 @@
     <row r="957">
       <c r="B957" t="inlineStr">
         <is>
-          <t>Cosamaloapan de Carpio</t>
+          <t>Cosamaloapan De Carpio</t>
         </is>
       </c>
       <c r="C957">
@@ -13072,7 +13072,7 @@
     <row r="967">
       <c r="B967" t="inlineStr">
         <is>
-          <t>Hueyapan de Ocampo</t>
+          <t>Hueyapan De Ocampo</t>
         </is>
       </c>
       <c r="C967">
@@ -13085,7 +13085,7 @@
     <row r="968">
       <c r="B968" t="inlineStr">
         <is>
-          <t>Ignacio de la Llave</t>
+          <t>Ignacio De La Llave</t>
         </is>
       </c>
       <c r="C968">
@@ -13098,7 +13098,7 @@
     <row r="969">
       <c r="B969" t="inlineStr">
         <is>
-          <t>Ixhuatlán de Madero</t>
+          <t>Ixhuatlán De Madero</t>
         </is>
       </c>
       <c r="C969">
@@ -13163,7 +13163,7 @@
     <row r="974">
       <c r="B974" t="inlineStr">
         <is>
-          <t>Juchique de Ferrer</t>
+          <t>Juchique De Ferrer</t>
         </is>
       </c>
       <c r="C974">
@@ -13202,7 +13202,7 @@
     <row r="977">
       <c r="B977" t="inlineStr">
         <is>
-          <t>Martínez de la Torre</t>
+          <t>Martínez De La Torre</t>
         </is>
       </c>
       <c r="C977">
@@ -13345,7 +13345,7 @@
     <row r="988">
       <c r="B988" t="inlineStr">
         <is>
-          <t>Paso de Ovejas</t>
+          <t>Paso De Ovejas</t>
         </is>
       </c>
       <c r="C988">
@@ -13358,7 +13358,7 @@
     <row r="989">
       <c r="B989" t="inlineStr">
         <is>
-          <t>Paso del Macho</t>
+          <t>Paso Del Macho</t>
         </is>
       </c>
       <c r="C989">
@@ -13384,7 +13384,7 @@
     <row r="991">
       <c r="B991" t="inlineStr">
         <is>
-          <t>Poza Rica de Hidalgo</t>
+          <t>Poza Rica De Hidalgo</t>
         </is>
       </c>
       <c r="C991">
@@ -13449,7 +13449,7 @@
     <row r="996">
       <c r="B996" t="inlineStr">
         <is>
-          <t>Sayula de Alemán</t>
+          <t>Sayula De Alemán</t>
         </is>
       </c>
       <c r="C996">
@@ -13475,7 +13475,7 @@
     <row r="998">
       <c r="B998" t="inlineStr">
         <is>
-          <t>Soledad de Doblado</t>
+          <t>Soledad De Doblado</t>
         </is>
       </c>
       <c r="C998">
@@ -13527,7 +13527,7 @@
     <row r="1002">
       <c r="B1002" t="inlineStr">
         <is>
-          <t>Tatahuicapan de Juárez</t>
+          <t>Tatahuicapan De Juárez</t>
         </is>
       </c>
       <c r="C1002">
@@ -13735,7 +13735,7 @@
     <row r="1018">
       <c r="B1018" t="inlineStr">
         <is>
-          <t>Vega de Alatorre</t>
+          <t>Vega De Alatorre</t>
         </is>
       </c>
       <c r="C1018">
@@ -13966,7 +13966,7 @@
     <row r="1035">
       <c r="B1035" t="inlineStr">
         <is>
-          <t>Concepción del Oro</t>
+          <t>Concepción Del Oro</t>
         </is>
       </c>
       <c r="C1035">
@@ -13979,7 +13979,7 @@
     <row r="1036">
       <c r="B1036" t="inlineStr">
         <is>
-          <t>El Plateado de Joaquín Amaro</t>
+          <t>El Plateado De Joaquín Amaro</t>
         </is>
       </c>
       <c r="C1036">
@@ -14161,7 +14161,7 @@
     <row r="1050">
       <c r="B1050" t="inlineStr">
         <is>
-          <t>Moyahua de Estrada</t>
+          <t>Moyahua De Estrada</t>
         </is>
       </c>
       <c r="C1050">
@@ -14174,7 +14174,7 @@
     <row r="1051">
       <c r="B1051" t="inlineStr">
         <is>
-          <t>Noria de Ángeles</t>
+          <t>Noria De Ángeles</t>
         </is>
       </c>
       <c r="C1051">
@@ -14278,7 +14278,7 @@
     <row r="1059">
       <c r="B1059" t="inlineStr">
         <is>
-          <t>Teúl de González Ortega</t>
+          <t>Teúl De González Ortega</t>
         </is>
       </c>
       <c r="C1059">
@@ -14291,7 +14291,7 @@
     <row r="1060">
       <c r="B1060" t="inlineStr">
         <is>
-          <t>Tlaltenango de Sánchez Román</t>
+          <t>Tlaltenango De Sánchez Román</t>
         </is>
       </c>
       <c r="C1060">
@@ -14330,7 +14330,7 @@
     <row r="1063">
       <c r="B1063" t="inlineStr">
         <is>
-          <t>Villa de Cos</t>
+          <t>Villa De Cos</t>
         </is>
       </c>
       <c r="C1063">
@@ -14429,41 +14429,6 @@
       </c>
       <c r="D1070">
         <v>1</v>
-      </c>
-    </row>
-    <row r="1072">
-      <c r="A1072" t="inlineStr">
-        <is>
-          <t>Tamaño de la muestra: 1,114,005</t>
-        </is>
-      </c>
-    </row>
-    <row r="1073">
-      <c r="A1073" t="inlineStr">
-        <is>
-          <t>Fuente: Expedición de Matrículas Consulares de Alta Seguridad en los Consulados de México en E.E.U.U.</t>
-        </is>
-      </c>
-    </row>
-    <row r="1074">
-      <c r="A1074" t="inlineStr">
-        <is>
-          <t>Elaborado por: Análisis de Información, Instituto de los Mexicanos en el Exterior</t>
-        </is>
-      </c>
-    </row>
-    <row r="1075">
-      <c r="A1075" t="inlineStr">
-        <is>
-          <t>Secretaría de Relaciones Exteriores</t>
-        </is>
-      </c>
-    </row>
-    <row r="1076">
-      <c r="A1076" t="inlineStr">
-        <is>
-          <t>Junio de 2016</t>
-        </is>
       </c>
     </row>
   </sheetData>
